--- a/Lotto.xlsx
+++ b/Lotto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elira\LottoGun\loto_hot_number\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133B23A8-D1AD-4FF9-A8BD-E2EAABF56F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE18278-1C92-4709-A9ED-0C8D5443AAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,6 +45,10 @@
       <sz val="11"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -54,7 +58,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -77,11 +81,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -89,9 +101,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="date_style" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -395,12 +409,12 @@
   <dimension ref="A1:H1836"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.8984375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -431,7 +445,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>45970</v>
+        <v>45911</v>
       </c>
       <c r="B2">
         <v>10</v>
